--- a/in家-iPad/in家iPad的副本.xlsx
+++ b/in家-iPad/in家iPad的副本.xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/in家-iPad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/ipadInterest/in家-iPad/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="4440" yWindow="1040" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="196">
   <si>
     <t>项目进度图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,10 @@
   </si>
   <si>
     <t>3、后台完成登录模块逻辑风格测试iPad逻辑修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -841,8 +845,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +1002,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA786"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1408,42 +1426,102 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,62 +1531,131 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,132 +1675,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1663,6 +1684,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1687,24 +1810,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1726,98 +1831,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2103,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E58" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="J58" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2118,116 +2148,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="88" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,154 +2338,154 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="78" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="61" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="78" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="61" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="AA7" s="6"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="78" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
       <c r="AA8" s="6"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="78" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
       <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="61"/>
+      <c r="L10" s="60"/>
       <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
       <c r="AA11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
       <c r="AA12" s="6"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="78" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="78"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
@@ -2464,21 +2494,21 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
       <c r="AA13" s="6"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="78" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
@@ -2487,22 +2517,22 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
       <c r="AA14" s="6"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="78" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="86" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="62" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="5"/>
@@ -2510,416 +2540,416 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
       <c r="AA15" s="6"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="N16" s="61" t="s">
+      <c r="N16" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
       <c r="AA16" s="6"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="83" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="61"/>
       <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
       <c r="AA17" s="6"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="83" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="61"/>
       <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
       <c r="AA18" s="6"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="83" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="61"/>
       <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="61" t="s">
+      <c r="R19" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="83" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="61"/>
       <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
       <c r="AA20" s="6"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="79"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="W21" s="61" t="s">
+      <c r="W21" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
       <c r="AA21" s="6"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
       <c r="AA22" s="6"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="83" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
       <c r="AA24" s="6"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="83" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
       <c r="AA25" s="6"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="83" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="61"/>
       <c r="E26" t="s">
         <v>63</v>
       </c>
       <c r="AA26" s="6"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
       <c r="AA27" s="6"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
       <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="83" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="61" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="75" t="s">
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="75"/>
+      <c r="J29" s="69"/>
       <c r="AA29" s="6"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="83" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
       <c r="AA30" s="6"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
+      <c r="B31" s="55"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
       <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
       <c r="AA32" s="6"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
+      <c r="B33" s="55"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
       <c r="AA33" s="6"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
       <c r="AA34" s="6"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
+      <c r="B35" s="55"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
       <c r="AA35" s="6"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
       <c r="AA36" s="6"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="79"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
+      <c r="B37" s="55"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
       <c r="AA37" s="6"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
       <c r="AA38" s="6"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
+      <c r="B39" s="55"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
       <c r="AA39" s="6"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
       <c r="AA40" s="6"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
       <c r="AA41" s="6"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
       <c r="AA42" s="6"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="83" t="s">
+      <c r="B43" s="55"/>
+      <c r="C43" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="61" t="s">
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="60" t="s">
         <v>90</v>
       </c>
       <c r="AA43" s="6"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="83" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="60"/>
       <c r="AA44" s="6"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="83" t="s">
+      <c r="B45" s="55"/>
+      <c r="C45" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2927,336 +2957,336 @@
       <c r="AA45" s="6"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="78" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="61" t="s">
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
       <c r="AA46" s="6"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
       <c r="AA47" s="6"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="78" t="s">
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
       <c r="AA48" s="6"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
       <c r="AA49" s="6"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="78" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="61" t="s">
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
       <c r="AA50" s="6"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
       <c r="AA51" s="6"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="61"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
       <c r="AA52" s="6"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="78" t="s">
+      <c r="B53" s="55"/>
+      <c r="C53" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="O53" s="61" t="s">
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="O53" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
       <c r="AA53" s="6"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="78" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
       <c r="AA54" s="6"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="79" t="s">
+      <c r="A55" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="79"/>
-      <c r="C55" s="78" t="s">
+      <c r="B55" s="55"/>
+      <c r="C55" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="61"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
       <c r="AA55" s="6"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56" s="79"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="82" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="Q56" s="61" t="s">
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="Q56" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
       <c r="AA56" s="6"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="61"/>
-      <c r="T57" s="61"/>
-      <c r="U57" s="61"/>
-      <c r="V57" s="61"/>
-      <c r="W57" s="61"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
       <c r="AA57" s="6"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="61"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="61"/>
-      <c r="U58" s="61"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
       <c r="AA58" s="6"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="76"/>
-      <c r="C59" s="76" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="X59" s="61" t="s">
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="X59" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="61"/>
+      <c r="Y59" s="60"/>
+      <c r="Z59" s="60"/>
       <c r="AA59" s="6"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77" t="s">
+      <c r="B60" s="71"/>
+      <c r="C60" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="61"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="X60" s="60"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="60"/>
       <c r="AA60" s="6"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77" t="s">
+      <c r="A61" s="71"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="X61" s="61"/>
-      <c r="Y61" s="61"/>
-      <c r="Z61" s="61"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="X61" s="60"/>
+      <c r="Y61" s="60"/>
+      <c r="Z61" s="60"/>
       <c r="AA61" s="6"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="X62" s="61"/>
-      <c r="Y62" s="61"/>
-      <c r="Z62" s="61"/>
+      <c r="X62" s="60"/>
+      <c r="Y62" s="60"/>
+      <c r="Z62" s="60"/>
       <c r="AA62" s="6"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
-      <c r="M63" s="80"/>
-      <c r="N63" s="80"/>
-      <c r="O63" s="80"/>
-      <c r="P63" s="80"/>
-      <c r="Q63" s="80"/>
-      <c r="R63" s="80"/>
-      <c r="S63" s="80"/>
-      <c r="T63" s="80"/>
-      <c r="U63" s="80"/>
-      <c r="V63" s="80"/>
-      <c r="W63" s="80"/>
-      <c r="X63" s="80"/>
-      <c r="Y63" s="80"/>
-      <c r="Z63" s="80"/>
-      <c r="AA63" s="80"/>
-      <c r="AB63" s="80"/>
-      <c r="AC63" s="80"/>
-      <c r="AD63" s="80"/>
-      <c r="AE63" s="80"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+      <c r="Z63" s="64"/>
+      <c r="AA63" s="64"/>
+      <c r="AB63" s="64"/>
+      <c r="AC63" s="64"/>
+      <c r="AD63" s="64"/>
+      <c r="AE63" s="64"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="80"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="80"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="80"/>
-      <c r="O64" s="80"/>
-      <c r="P64" s="80"/>
-      <c r="Q64" s="80"/>
-      <c r="R64" s="80"/>
-      <c r="S64" s="80"/>
-      <c r="T64" s="80"/>
-      <c r="U64" s="80"/>
-      <c r="V64" s="80"/>
-      <c r="W64" s="80"/>
-      <c r="X64" s="80"/>
-      <c r="Y64" s="80"/>
-      <c r="Z64" s="80"/>
-      <c r="AA64" s="80"/>
-      <c r="AB64" s="80"/>
-      <c r="AC64" s="80"/>
-      <c r="AD64" s="80"/>
-      <c r="AE64" s="80"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="T64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="64"/>
+      <c r="Z64" s="64"/>
+      <c r="AA64" s="64"/>
+      <c r="AB64" s="64"/>
+      <c r="AC64" s="64"/>
+      <c r="AD64" s="64"/>
+      <c r="AE64" s="64"/>
     </row>
     <row r="65" spans="5:31" x14ac:dyDescent="0.2">
-      <c r="E65" s="61" t="s">
+      <c r="E65" s="60" t="s">
         <v>108</v>
       </c>
       <c r="F65" s="38" t="s">
@@ -3339,21 +3369,21 @@
       </c>
     </row>
     <row r="66" spans="5:31" x14ac:dyDescent="0.2">
-      <c r="E66" s="61"/>
-      <c r="F66" s="81" t="s">
+      <c r="E66" s="60"/>
+      <c r="F66" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="G66" s="191" t="s">
+      <c r="G66" s="68" t="s">
         <v>192</v>
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
-      <c r="J66" s="60" t="s">
+      <c r="J66" s="66" t="s">
         <v>106</v>
       </c>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
-      <c r="M66" s="60" t="s">
+      <c r="M66" s="66" t="s">
         <v>107</v>
       </c>
       <c r="N66" s="36"/>
@@ -3362,18 +3392,18 @@
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
       <c r="S66" s="29"/>
-      <c r="T66" s="60" t="s">
+      <c r="T66" s="66" t="s">
         <v>176</v>
       </c>
       <c r="U66" s="36"/>
       <c r="V66" s="29"/>
-      <c r="W66" s="60" t="s">
+      <c r="W66" s="66" t="s">
         <v>159</v>
       </c>
       <c r="X66" s="29"/>
       <c r="Y66" s="29"/>
       <c r="Z66" s="33"/>
-      <c r="AA66" s="58" t="s">
+      <c r="AA66" s="84" t="s">
         <v>141</v>
       </c>
       <c r="AB66" s="29"/>
@@ -3382,126 +3412,126 @@
       <c r="AE66" s="33"/>
     </row>
     <row r="67" spans="5:31" x14ac:dyDescent="0.2">
-      <c r="E67" s="62" t="s">
+      <c r="E67" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="81"/>
-      <c r="G67" s="191"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
-      <c r="J67" s="60"/>
+      <c r="J67" s="66"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
-      <c r="M67" s="60"/>
+      <c r="M67" s="66"/>
       <c r="N67" s="36"/>
       <c r="O67" s="29"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
       <c r="S67" s="29"/>
-      <c r="T67" s="60"/>
+      <c r="T67" s="66"/>
       <c r="U67" s="36"/>
       <c r="V67" s="29"/>
-      <c r="W67" s="60"/>
+      <c r="W67" s="66"/>
       <c r="X67" s="29"/>
       <c r="Y67" s="29"/>
       <c r="Z67" s="33"/>
-      <c r="AA67" s="58"/>
+      <c r="AA67" s="84"/>
       <c r="AB67" s="29"/>
       <c r="AC67" s="29"/>
       <c r="AD67" s="29"/>
       <c r="AE67" s="33"/>
     </row>
     <row r="68" spans="5:31" x14ac:dyDescent="0.2">
-      <c r="E68" s="62"/>
-      <c r="F68" s="81" t="s">
+      <c r="E68" s="79"/>
+      <c r="F68" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="G68" s="191" t="s">
+      <c r="G68" s="68" t="s">
         <v>193</v>
       </c>
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
-      <c r="J68" s="60"/>
+      <c r="J68" s="66"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
-      <c r="M68" s="60"/>
+      <c r="M68" s="66"/>
       <c r="N68" s="36"/>
       <c r="O68" s="29"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
       <c r="R68" s="29"/>
       <c r="S68" s="29"/>
-      <c r="T68" s="60"/>
+      <c r="T68" s="66"/>
       <c r="U68" s="36"/>
       <c r="V68" s="29"/>
-      <c r="W68" s="60"/>
+      <c r="W68" s="66"/>
       <c r="X68" s="29"/>
       <c r="Y68" s="29"/>
       <c r="Z68" s="33"/>
-      <c r="AA68" s="58"/>
+      <c r="AA68" s="84"/>
       <c r="AB68" s="29"/>
       <c r="AC68" s="29"/>
       <c r="AD68" s="29"/>
       <c r="AE68" s="33"/>
     </row>
     <row r="69" spans="5:31" x14ac:dyDescent="0.2">
-      <c r="E69" s="63" t="s">
+      <c r="E69" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="81"/>
-      <c r="G69" s="191"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="68"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
-      <c r="J69" s="60"/>
+      <c r="J69" s="66"/>
       <c r="K69" s="29"/>
       <c r="L69" s="29"/>
-      <c r="M69" s="60"/>
+      <c r="M69" s="66"/>
       <c r="N69" s="36"/>
       <c r="O69" s="29"/>
       <c r="P69" s="29"/>
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
-      <c r="T69" s="60"/>
+      <c r="T69" s="66"/>
       <c r="U69" s="36"/>
       <c r="V69" s="29"/>
-      <c r="W69" s="60"/>
+      <c r="W69" s="66"/>
       <c r="X69" s="29"/>
       <c r="Y69" s="29"/>
       <c r="Z69" s="33"/>
-      <c r="AA69" s="58"/>
+      <c r="AA69" s="84"/>
       <c r="AB69" s="29"/>
       <c r="AC69" s="29"/>
       <c r="AD69" s="29"/>
       <c r="AE69" s="33"/>
     </row>
     <row r="70" spans="5:31" x14ac:dyDescent="0.2">
-      <c r="E70" s="63"/>
+      <c r="E70" s="80"/>
       <c r="F70" s="36"/>
-      <c r="G70" s="191" t="s">
+      <c r="G70" s="68" t="s">
         <v>194</v>
       </c>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
-      <c r="J70" s="60"/>
+      <c r="J70" s="66"/>
       <c r="K70" s="29"/>
       <c r="L70" s="29"/>
-      <c r="M70" s="60"/>
+      <c r="M70" s="66"/>
       <c r="N70" s="36"/>
       <c r="O70" s="29"/>
       <c r="P70" s="29"/>
       <c r="Q70" s="29"/>
       <c r="R70" s="29"/>
       <c r="S70" s="29"/>
-      <c r="T70" s="60"/>
+      <c r="T70" s="66"/>
       <c r="U70" s="36"/>
       <c r="V70" s="29"/>
-      <c r="W70" s="60"/>
+      <c r="W70" s="66"/>
       <c r="X70" s="29"/>
       <c r="Y70" s="29"/>
       <c r="Z70" s="33"/>
-      <c r="AA70" s="58"/>
+      <c r="AA70" s="84"/>
       <c r="AB70" s="29"/>
       <c r="AC70" s="29"/>
       <c r="AD70" s="29"/>
@@ -3509,27 +3539,27 @@
     </row>
     <row r="71" spans="5:31" x14ac:dyDescent="0.2">
       <c r="F71" s="36"/>
-      <c r="G71" s="191"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
-      <c r="J71" s="60"/>
+      <c r="J71" s="66"/>
       <c r="K71" s="29"/>
       <c r="L71" s="29"/>
-      <c r="M71" s="60"/>
+      <c r="M71" s="66"/>
       <c r="N71" s="36"/>
       <c r="O71" s="29"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
-      <c r="T71" s="60"/>
+      <c r="T71" s="66"/>
       <c r="U71" s="36"/>
       <c r="V71" s="29"/>
-      <c r="W71" s="60"/>
+      <c r="W71" s="66"/>
       <c r="X71" s="29"/>
       <c r="Y71" s="29"/>
       <c r="Z71" s="33"/>
-      <c r="AA71" s="58"/>
+      <c r="AA71" s="84"/>
       <c r="AB71" s="29"/>
       <c r="AC71" s="29"/>
       <c r="AD71" s="29"/>
@@ -3540,24 +3570,24 @@
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
-      <c r="J72" s="60"/>
+      <c r="J72" s="66"/>
       <c r="K72" s="29"/>
       <c r="L72" s="29"/>
-      <c r="M72" s="60"/>
+      <c r="M72" s="66"/>
       <c r="N72" s="36"/>
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
-      <c r="T72" s="60"/>
+      <c r="T72" s="66"/>
       <c r="U72" s="36"/>
       <c r="V72" s="29"/>
-      <c r="W72" s="60"/>
+      <c r="W72" s="66"/>
       <c r="X72" s="29"/>
       <c r="Y72" s="29"/>
       <c r="Z72" s="33"/>
-      <c r="AA72" s="58"/>
+      <c r="AA72" s="84"/>
       <c r="AB72" s="29"/>
       <c r="AC72" s="29"/>
       <c r="AD72" s="29"/>
@@ -3568,24 +3598,24 @@
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
-      <c r="J73" s="60"/>
+      <c r="J73" s="66"/>
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
-      <c r="M73" s="60"/>
+      <c r="M73" s="66"/>
       <c r="N73" s="36"/>
       <c r="O73" s="29"/>
       <c r="P73" s="29"/>
       <c r="Q73" s="29"/>
       <c r="R73" s="29"/>
       <c r="S73" s="29"/>
-      <c r="T73" s="60"/>
+      <c r="T73" s="66"/>
       <c r="U73" s="36"/>
       <c r="V73" s="29"/>
-      <c r="W73" s="60"/>
+      <c r="W73" s="66"/>
       <c r="X73" s="29"/>
       <c r="Y73" s="29"/>
       <c r="Z73" s="33"/>
-      <c r="AA73" s="58"/>
+      <c r="AA73" s="84"/>
       <c r="AB73" s="29"/>
       <c r="AC73" s="29"/>
       <c r="AD73" s="29"/>
@@ -3596,24 +3626,24 @@
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
-      <c r="J74" s="60"/>
+      <c r="J74" s="66"/>
       <c r="K74" s="29"/>
       <c r="L74" s="29"/>
-      <c r="M74" s="60"/>
+      <c r="M74" s="66"/>
       <c r="N74" s="36"/>
       <c r="O74" s="29"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
       <c r="R74" s="29"/>
       <c r="S74" s="29"/>
-      <c r="T74" s="60"/>
+      <c r="T74" s="66"/>
       <c r="U74" s="36"/>
       <c r="V74" s="29"/>
-      <c r="W74" s="60"/>
+      <c r="W74" s="66"/>
       <c r="X74" s="29"/>
       <c r="Y74" s="29"/>
       <c r="Z74" s="33"/>
-      <c r="AA74" s="58"/>
+      <c r="AA74" s="84"/>
       <c r="AB74" s="29"/>
       <c r="AC74" s="29"/>
       <c r="AD74" s="29"/>
@@ -3624,24 +3654,24 @@
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
-      <c r="J75" s="60"/>
+      <c r="J75" s="66"/>
       <c r="K75" s="29"/>
       <c r="L75" s="29"/>
-      <c r="M75" s="60"/>
+      <c r="M75" s="66"/>
       <c r="N75" s="36"/>
       <c r="O75" s="29"/>
       <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
       <c r="R75" s="29"/>
       <c r="S75" s="29"/>
-      <c r="T75" s="60"/>
+      <c r="T75" s="66"/>
       <c r="U75" s="36"/>
       <c r="V75" s="29"/>
-      <c r="W75" s="60"/>
+      <c r="W75" s="66"/>
       <c r="X75" s="29"/>
       <c r="Y75" s="29"/>
       <c r="Z75" s="33"/>
-      <c r="AA75" s="58"/>
+      <c r="AA75" s="84"/>
       <c r="AB75" s="29"/>
       <c r="AC75" s="29"/>
       <c r="AD75" s="29"/>
@@ -3652,24 +3682,24 @@
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
-      <c r="J76" s="60"/>
+      <c r="J76" s="66"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29"/>
-      <c r="M76" s="60"/>
+      <c r="M76" s="66"/>
       <c r="N76" s="36"/>
       <c r="O76" s="29"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="29"/>
       <c r="R76" s="29"/>
       <c r="S76" s="29"/>
-      <c r="T76" s="60"/>
+      <c r="T76" s="66"/>
       <c r="U76" s="36"/>
       <c r="V76" s="29"/>
-      <c r="W76" s="60"/>
+      <c r="W76" s="66"/>
       <c r="X76" s="29"/>
       <c r="Y76" s="29"/>
       <c r="Z76" s="33"/>
-      <c r="AA76" s="58"/>
+      <c r="AA76" s="84"/>
       <c r="AB76" s="29"/>
       <c r="AC76" s="29"/>
       <c r="AD76" s="29"/>
@@ -3680,24 +3710,24 @@
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
-      <c r="J77" s="60"/>
+      <c r="J77" s="66"/>
       <c r="K77" s="29"/>
       <c r="L77" s="29"/>
-      <c r="M77" s="60"/>
+      <c r="M77" s="66"/>
       <c r="N77" s="36"/>
       <c r="O77" s="29"/>
       <c r="P77" s="29"/>
       <c r="Q77" s="29"/>
       <c r="R77" s="29"/>
       <c r="S77" s="29"/>
-      <c r="T77" s="60"/>
+      <c r="T77" s="66"/>
       <c r="U77" s="36"/>
       <c r="V77" s="29"/>
-      <c r="W77" s="60"/>
+      <c r="W77" s="66"/>
       <c r="X77" s="29"/>
       <c r="Y77" s="29"/>
       <c r="Z77" s="33"/>
-      <c r="AA77" s="58"/>
+      <c r="AA77" s="84"/>
       <c r="AB77" s="29"/>
       <c r="AC77" s="29"/>
       <c r="AD77" s="29"/>
@@ -3708,24 +3738,24 @@
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
-      <c r="J78" s="60"/>
+      <c r="J78" s="66"/>
       <c r="K78" s="29"/>
       <c r="L78" s="29"/>
-      <c r="M78" s="60"/>
+      <c r="M78" s="66"/>
       <c r="N78" s="36"/>
       <c r="O78" s="29"/>
       <c r="P78" s="29"/>
       <c r="Q78" s="29"/>
       <c r="R78" s="29"/>
       <c r="S78" s="29"/>
-      <c r="T78" s="60"/>
+      <c r="T78" s="66"/>
       <c r="U78" s="36"/>
       <c r="V78" s="29"/>
-      <c r="W78" s="60"/>
+      <c r="W78" s="66"/>
       <c r="X78" s="29"/>
       <c r="Y78" s="29"/>
       <c r="Z78" s="33"/>
-      <c r="AA78" s="58"/>
+      <c r="AA78" s="84"/>
       <c r="AB78" s="29"/>
       <c r="AC78" s="29"/>
       <c r="AD78" s="29"/>
@@ -3746,14 +3776,14 @@
       <c r="Q79" s="29"/>
       <c r="R79" s="29"/>
       <c r="S79" s="29"/>
-      <c r="T79" s="60"/>
+      <c r="T79" s="66"/>
       <c r="U79" s="36"/>
       <c r="V79" s="29"/>
-      <c r="W79" s="60"/>
+      <c r="W79" s="66"/>
       <c r="X79" s="29"/>
       <c r="Y79" s="29"/>
       <c r="Z79" s="33"/>
-      <c r="AA79" s="58"/>
+      <c r="AA79" s="84"/>
       <c r="AB79" s="29"/>
       <c r="AC79" s="29"/>
       <c r="AD79" s="29"/>
@@ -3774,10 +3804,10 @@
       <c r="Q80" s="29"/>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
-      <c r="T80" s="60"/>
+      <c r="T80" s="66"/>
       <c r="U80" s="36"/>
       <c r="V80" s="29"/>
-      <c r="W80" s="60"/>
+      <c r="W80" s="66"/>
       <c r="X80" s="29"/>
       <c r="Y80" s="29"/>
       <c r="Z80" s="33"/>
@@ -3844,166 +3874,166 @@
       <c r="AE82" s="33"/>
     </row>
     <row r="83" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="61" t="s">
+      <c r="A83" s="60" t="s">
         <v>108</v>
       </c>
       <c r="F83" s="36"/>
-      <c r="G83" s="72" t="s">
+      <c r="G83" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="H83" s="72"/>
-      <c r="I83" s="65" t="s">
+      <c r="H83" s="78"/>
+      <c r="I83" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="66"/>
-      <c r="N83" s="64" t="s">
+      <c r="J83" s="76"/>
+      <c r="K83" s="76"/>
+      <c r="L83" s="76"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="65"/>
-      <c r="S83" s="65"/>
-      <c r="T83" s="66"/>
-      <c r="U83" s="67" t="s">
+      <c r="O83" s="76"/>
+      <c r="P83" s="76"/>
+      <c r="Q83" s="76"/>
+      <c r="R83" s="76"/>
+      <c r="S83" s="76"/>
+      <c r="T83" s="77"/>
+      <c r="U83" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="V83" s="68"/>
-      <c r="W83" s="69"/>
-      <c r="X83" s="68" t="s">
+      <c r="V83" s="88"/>
+      <c r="W83" s="89"/>
+      <c r="X83" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="Y83" s="68"/>
-      <c r="Z83" s="69"/>
+      <c r="Y83" s="88"/>
+      <c r="Z83" s="89"/>
       <c r="AA83" s="46"/>
-      <c r="AB83" s="59" t="s">
+      <c r="AB83" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="AC83" s="59"/>
-      <c r="AD83" s="59"/>
-      <c r="AE83" s="60"/>
+      <c r="AC83" s="85"/>
+      <c r="AD83" s="85"/>
+      <c r="AE83" s="66"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A84" s="61"/>
+      <c r="A84" s="60"/>
       <c r="F84" s="37"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="66"/>
-      <c r="N84" s="64"/>
-      <c r="O84" s="65"/>
-      <c r="P84" s="65"/>
-      <c r="Q84" s="65"/>
-      <c r="R84" s="65"/>
-      <c r="S84" s="65"/>
-      <c r="T84" s="66"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="68"/>
-      <c r="W84" s="69"/>
-      <c r="X84" s="68"/>
-      <c r="Y84" s="68"/>
-      <c r="Z84" s="69"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="76"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="86"/>
+      <c r="O84" s="76"/>
+      <c r="P84" s="76"/>
+      <c r="Q84" s="76"/>
+      <c r="R84" s="76"/>
+      <c r="S84" s="76"/>
+      <c r="T84" s="77"/>
+      <c r="U84" s="87"/>
+      <c r="V84" s="88"/>
+      <c r="W84" s="89"/>
+      <c r="X84" s="88"/>
+      <c r="Y84" s="88"/>
+      <c r="Z84" s="89"/>
       <c r="AA84" s="46"/>
-      <c r="AB84" s="59"/>
-      <c r="AC84" s="59"/>
-      <c r="AD84" s="59"/>
-      <c r="AE84" s="60"/>
+      <c r="AB84" s="85"/>
+      <c r="AC84" s="85"/>
+      <c r="AD84" s="85"/>
+      <c r="AE84" s="66"/>
     </row>
     <row r="85" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="F85" s="57" t="s">
+      <c r="F85" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="G85" s="55" t="s">
+      <c r="G85" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="H85" s="55" t="s">
+      <c r="H85" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="57" t="s">
+      <c r="I85" s="74"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="75"/>
+      <c r="N85" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="O85" s="55"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="55"/>
-      <c r="R85" s="55"/>
-      <c r="S85" s="55"/>
-      <c r="T85" s="56"/>
-      <c r="U85" s="57" t="s">
+      <c r="O85" s="74"/>
+      <c r="P85" s="74"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="74"/>
+      <c r="S85" s="74"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="V85" s="55"/>
-      <c r="W85" s="55"/>
-      <c r="X85" s="55"/>
-      <c r="Y85" s="55" t="s">
+      <c r="V85" s="74"/>
+      <c r="W85" s="74"/>
+      <c r="X85" s="74"/>
+      <c r="Y85" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="Z85" s="56"/>
+      <c r="Z85" s="75"/>
       <c r="AA85" s="46"/>
-      <c r="AB85" s="59"/>
-      <c r="AC85" s="59"/>
-      <c r="AD85" s="59"/>
-      <c r="AE85" s="60"/>
+      <c r="AB85" s="85"/>
+      <c r="AC85" s="85"/>
+      <c r="AD85" s="85"/>
+      <c r="AE85" s="66"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="57"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="55"/>
-      <c r="R86" s="55"/>
-      <c r="S86" s="55"/>
-      <c r="T86" s="56"/>
-      <c r="U86" s="57"/>
-      <c r="V86" s="55"/>
-      <c r="W86" s="55"/>
-      <c r="X86" s="55"/>
-      <c r="Y86" s="55"/>
-      <c r="Z86" s="56"/>
+      <c r="A86" s="79"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="75"/>
+      <c r="N86" s="81"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+      <c r="Q86" s="74"/>
+      <c r="R86" s="74"/>
+      <c r="S86" s="74"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="81"/>
+      <c r="V86" s="74"/>
+      <c r="W86" s="74"/>
+      <c r="X86" s="74"/>
+      <c r="Y86" s="74"/>
+      <c r="Z86" s="75"/>
       <c r="AA86" s="46"/>
-      <c r="AB86" s="59"/>
-      <c r="AC86" s="59"/>
-      <c r="AD86" s="59"/>
-      <c r="AE86" s="60"/>
+      <c r="AB86" s="85"/>
+      <c r="AC86" s="85"/>
+      <c r="AD86" s="85"/>
+      <c r="AE86" s="66"/>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A87" s="63" t="s">
+      <c r="A87" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="F87" s="73" t="s">
+      <c r="F87" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="G87" s="70" t="s">
+      <c r="G87" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="H87" s="70" t="s">
+      <c r="H87" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="I87" s="70" t="s">
+      <c r="I87" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="J87" s="70"/>
+      <c r="J87" s="72"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
       <c r="M87" s="33"/>
@@ -4027,12 +4057,12 @@
       <c r="AE87" s="33"/>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A88" s="63"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
+      <c r="A88" s="80"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
       <c r="K88" s="34"/>
       <c r="L88" s="34"/>
       <c r="M88" s="35"/>
@@ -4057,32 +4087,62 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="A1:AE2"/>
-    <mergeCell ref="F3:AE3"/>
-    <mergeCell ref="F7:J9"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A10:B12"/>
-    <mergeCell ref="C10:E12"/>
-    <mergeCell ref="A13:B16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="Y85:Z86"/>
+    <mergeCell ref="U85:X86"/>
+    <mergeCell ref="AA66:AA79"/>
+    <mergeCell ref="AB83:AE86"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="W66:W80"/>
+    <mergeCell ref="T66:T80"/>
+    <mergeCell ref="N83:T84"/>
+    <mergeCell ref="N85:T86"/>
+    <mergeCell ref="U83:W84"/>
+    <mergeCell ref="X83:Z84"/>
+    <mergeCell ref="I87:J88"/>
+    <mergeCell ref="H85:M86"/>
+    <mergeCell ref="I83:M84"/>
+    <mergeCell ref="G83:H84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F46:J48"/>
+    <mergeCell ref="I29:J40"/>
+    <mergeCell ref="F29:H40"/>
+    <mergeCell ref="F50:N52"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="A55:B58"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B52"/>
+    <mergeCell ref="C46:E47"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="C50:E52"/>
+    <mergeCell ref="A63:AE64"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="J66:J78"/>
+    <mergeCell ref="M66:M78"/>
+    <mergeCell ref="O53:S55"/>
+    <mergeCell ref="C56:E58"/>
+    <mergeCell ref="Q56:W58"/>
+    <mergeCell ref="X59:Z62"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="K12:P15"/>
     <mergeCell ref="N16:S18"/>
@@ -4107,62 +4167,32 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A63:AE64"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="J66:J78"/>
-    <mergeCell ref="M66:M78"/>
-    <mergeCell ref="O53:S55"/>
-    <mergeCell ref="C56:E58"/>
-    <mergeCell ref="Q56:W58"/>
-    <mergeCell ref="X59:Z62"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F46:J48"/>
-    <mergeCell ref="I29:J40"/>
-    <mergeCell ref="F29:H40"/>
-    <mergeCell ref="F50:N52"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="A53:B54"/>
-    <mergeCell ref="A55:B58"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B52"/>
-    <mergeCell ref="C46:E47"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="C50:E52"/>
-    <mergeCell ref="I87:J88"/>
-    <mergeCell ref="H85:M86"/>
-    <mergeCell ref="I83:M84"/>
-    <mergeCell ref="G83:H84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="Y85:Z86"/>
-    <mergeCell ref="U85:X86"/>
-    <mergeCell ref="AA66:AA79"/>
-    <mergeCell ref="AB83:AE86"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="W66:W80"/>
-    <mergeCell ref="T66:T80"/>
-    <mergeCell ref="N83:T84"/>
-    <mergeCell ref="N85:T86"/>
-    <mergeCell ref="U83:W84"/>
-    <mergeCell ref="X83:Z84"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="C10:E12"/>
+    <mergeCell ref="A13:B16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="A1:AE2"/>
+    <mergeCell ref="F3:AE3"/>
+    <mergeCell ref="F7:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4172,10 +4202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4185,427 +4215,439 @@
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="89" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="194" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="195"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="97" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="112" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="102" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
+      <c r="H2" s="97"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="97" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="105"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="106" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="106" t="s">
+      <c r="F4" s="108"/>
+      <c r="G4" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="92" t="s">
+      <c r="H4" s="108"/>
+      <c r="I4" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="193"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102" t="s">
+      <c r="D5" s="131"/>
+      <c r="E5" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="103"/>
-      <c r="G5" s="122" t="s">
+      <c r="F5" s="97"/>
+      <c r="G5" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="123"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="H5" s="103"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="95" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="76" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="124"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="B7" s="61"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="104"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="126"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="B8" s="61"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="E9" s="106" t="s">
+      <c r="B9" s="61"/>
+      <c r="E9" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="120" t="s">
+      <c r="F9" s="108"/>
+      <c r="G9" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="76" t="s">
+      <c r="H9" s="101"/>
+      <c r="I9" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="E10" s="102" t="s">
+      <c r="B10" s="61"/>
+      <c r="E10" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="122" t="s">
+      <c r="F10" s="97"/>
+      <c r="G10" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="123"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
+      <c r="H10" s="103"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="124"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
+      <c r="B11" s="61"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="104"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="124"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
+      <c r="B12" s="61"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="104"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="124"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="B13" s="61"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="104"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="124"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="B14" s="61"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="104"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
+      <c r="B15" s="61"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="E16" s="120" t="s">
+      <c r="B16" s="61"/>
+      <c r="E16" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="106" t="s">
+      <c r="F16" s="101"/>
+      <c r="G16" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="107"/>
-      <c r="I16" s="127" t="s">
+      <c r="H16" s="108"/>
+      <c r="I16" s="109" t="s">
         <v>180</v>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="E17" s="102" t="s">
+      <c r="B17" s="61"/>
+      <c r="E17" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="117"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="124"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="119"/>
+      <c r="B18" s="61"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="126"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="E19" s="106" t="s">
+      <c r="B19" s="61"/>
+      <c r="E19" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="107"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="83"/>
+      <c r="B20" s="61"/>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
-      <c r="G20" s="110" t="s">
+      <c r="G20" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="111"/>
-      <c r="I20" s="76" t="s">
+      <c r="H20" s="117"/>
+      <c r="I20" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="83"/>
+      <c r="B21" s="61"/>
       <c r="E21" s="51"/>
       <c r="F21" s="52"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="134"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="83"/>
+      <c r="B22" s="61"/>
       <c r="E22" s="53"/>
       <c r="F22" s="54"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="134"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="E23" s="99" t="s">
+      <c r="B23" s="61"/>
+      <c r="E23" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="110" t="s">
+      <c r="F23" s="111"/>
+      <c r="G23" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="76" t="s">
+      <c r="H23" s="117"/>
+      <c r="I23" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="83"/>
+      <c r="B24" s="61"/>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="83"/>
+      <c r="B25" s="61"/>
       <c r="E25" s="51"/>
       <c r="F25" s="52"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="E26" s="130" t="s">
+      <c r="B26" s="61"/>
+      <c r="E26" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="131"/>
-      <c r="G26" s="135" t="s">
+      <c r="F26" s="115"/>
+      <c r="G26" s="94" t="s">
         <v>191</v>
       </c>
-      <c r="H26" s="136"/>
+      <c r="H26" s="95"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="E27" s="128" t="s">
+      <c r="B27" s="61"/>
+      <c r="E27" s="112" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="129"/>
-      <c r="G27" s="132" t="s">
+      <c r="F27" s="113"/>
+      <c r="G27" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="H27" s="133"/>
-      <c r="I27" s="78" t="s">
+      <c r="H27" s="91"/>
+      <c r="I27" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="G5:H8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G10:H15"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E10:F15"/>
-    <mergeCell ref="G20:H20"/>
+  <mergeCells count="68">
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E2:F3"/>
     <mergeCell ref="G17:H19"/>
@@ -4622,33 +4664,29 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="G5:H8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G10:H15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E10:F15"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I27:M27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4666,205 +4704,205 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="140"/>
-      <c r="Y1" s="140"/>
-      <c r="Z1" s="140"/>
-      <c r="AA1" s="140"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="140"/>
-      <c r="AL1" s="140"/>
-      <c r="AM1" s="140"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+      <c r="AD1" s="175"/>
+      <c r="AE1" s="175"/>
+      <c r="AF1" s="175"/>
+      <c r="AG1" s="175"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="175"/>
+      <c r="AK1" s="175"/>
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="175"/>
     </row>
     <row r="2" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="141"/>
-      <c r="AM2" s="141"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="176"/>
+      <c r="AF2" s="176"/>
+      <c r="AG2" s="176"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="176"/>
+      <c r="AJ2" s="176"/>
+      <c r="AK2" s="176"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
     </row>
     <row r="3" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="177" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="154" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="158">
+      <c r="L3" s="187">
         <v>2014</v>
       </c>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="158">
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="187">
         <v>2015</v>
       </c>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="159"/>
-      <c r="AM3" s="160"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="188"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="188"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="188"/>
+      <c r="AJ3" s="188"/>
+      <c r="AK3" s="188"/>
+      <c r="AL3" s="188"/>
+      <c r="AM3" s="189"/>
     </row>
     <row r="4" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
       <c r="I4" s="24" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="137" t="s">
+      <c r="L4" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="138"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="137" t="s">
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="137" t="s">
+      <c r="P4" s="139"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="S4" s="138"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="137" t="s">
+      <c r="S4" s="139"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="V4" s="138"/>
-      <c r="W4" s="138"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="137" t="s">
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="137" t="s">
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="139"/>
-      <c r="AG4" s="137" t="s">
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="AH4" s="138"/>
-      <c r="AI4" s="138"/>
-      <c r="AJ4" s="139"/>
-      <c r="AK4" s="137" t="s">
+      <c r="AH4" s="139"/>
+      <c r="AI4" s="139"/>
+      <c r="AJ4" s="140"/>
+      <c r="AK4" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="AL4" s="138"/>
-      <c r="AM4" s="139"/>
+      <c r="AL4" s="139"/>
+      <c r="AM4" s="140"/>
     </row>
     <row r="5" spans="1:39" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="164" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4882,30 +4920,30 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="161"/>
-      <c r="X5" s="162"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="162"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="144"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
-      <c r="AD5" s="161"/>
-      <c r="AE5" s="162"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="144"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="161"/>
-      <c r="AJ5" s="162"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="144"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
     </row>
     <row r="6" spans="1:39" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="151"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="153"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="172"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4923,32 +4961,32 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="161"/>
-      <c r="Z6" s="162"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="144"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="144"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="161"/>
-      <c r="AE6" s="162"/>
+      <c r="AD6" s="143"/>
+      <c r="AE6" s="144"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
-      <c r="AI6" s="161"/>
-      <c r="AJ6" s="162"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="144"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
     </row>
     <row r="7" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="139"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="9"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -4966,32 +5004,32 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="166"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="166"/>
+      <c r="W7" s="190"/>
+      <c r="X7" s="191"/>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="191"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
       <c r="AC7" s="11"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="162"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="144"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="164"/>
+      <c r="AI7" s="145"/>
+      <c r="AJ7" s="146"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
     </row>
     <row r="8" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="139"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -5009,32 +5047,32 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
-      <c r="W8" s="161"/>
-      <c r="X8" s="162"/>
-      <c r="Y8" s="161"/>
-      <c r="Z8" s="162"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="144"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="144"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
-      <c r="AD8" s="161"/>
-      <c r="AE8" s="162"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="144"/>
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
-      <c r="AI8" s="161"/>
-      <c r="AJ8" s="162"/>
+      <c r="AI8" s="143"/>
+      <c r="AJ8" s="144"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
     </row>
     <row r="9" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -5052,30 +5090,30 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="168"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="163"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="11"/>
-      <c r="AD9" s="161"/>
-      <c r="AE9" s="162"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="144"/>
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
-      <c r="AI9" s="161"/>
-      <c r="AJ9" s="162"/>
+      <c r="AI9" s="143"/>
+      <c r="AJ9" s="144"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
     </row>
     <row r="10" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="171"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="169"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -5093,30 +5131,30 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="168"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="163"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="11"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="162"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="144"/>
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
-      <c r="AI10" s="163"/>
-      <c r="AJ10" s="164"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="146"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
     </row>
     <row r="11" spans="1:39" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="11"/>
@@ -5134,30 +5172,30 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="163"/>
-      <c r="Z11" s="164"/>
+      <c r="W11" s="173"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="146"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
-      <c r="AD11" s="161"/>
-      <c r="AE11" s="162"/>
+      <c r="AD11" s="143"/>
+      <c r="AE11" s="144"/>
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
-      <c r="AI11" s="161"/>
-      <c r="AJ11" s="162"/>
+      <c r="AI11" s="143"/>
+      <c r="AJ11" s="144"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
     </row>
     <row r="12" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="151"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="153"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="172"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="11"/>
@@ -5175,32 +5213,32 @@
       <c r="T12" s="15"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="162"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="143"/>
+      <c r="Z12" s="144"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="162"/>
+      <c r="AD12" s="143"/>
+      <c r="AE12" s="144"/>
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
-      <c r="AI12" s="161"/>
-      <c r="AJ12" s="162"/>
+      <c r="AI12" s="143"/>
+      <c r="AJ12" s="144"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
     </row>
     <row r="13" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="11"/>
@@ -5218,32 +5256,32 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="179"/>
-      <c r="X13" s="180"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="162"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="143"/>
+      <c r="Z13" s="144"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
-      <c r="AD13" s="161"/>
-      <c r="AE13" s="162"/>
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="144"/>
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
-      <c r="AI13" s="161"/>
-      <c r="AJ13" s="162"/>
+      <c r="AI13" s="143"/>
+      <c r="AJ13" s="144"/>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
     </row>
     <row r="14" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="177"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="9"/>
@@ -5261,32 +5299,32 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="17"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="175"/>
-      <c r="Y14" s="174"/>
-      <c r="Z14" s="175"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="156"/>
       <c r="AA14" s="17"/>
       <c r="AB14" s="17"/>
       <c r="AC14" s="17"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="175"/>
+      <c r="AD14" s="155"/>
+      <c r="AE14" s="156"/>
       <c r="AF14" s="17"/>
       <c r="AG14" s="9"/>
       <c r="AH14" s="9"/>
-      <c r="AI14" s="161"/>
-      <c r="AJ14" s="162"/>
+      <c r="AI14" s="143"/>
+      <c r="AJ14" s="144"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
     </row>
     <row r="15" spans="1:39" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="137" t="s">
+      <c r="A15" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -5304,32 +5342,32 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="18"/>
-      <c r="W15" s="181"/>
-      <c r="X15" s="182"/>
-      <c r="Y15" s="181"/>
-      <c r="Z15" s="182"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="149"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="161"/>
-      <c r="AE15" s="162"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="144"/>
       <c r="AF15" s="9"/>
       <c r="AG15" s="11"/>
       <c r="AH15" s="9"/>
-      <c r="AI15" s="161"/>
-      <c r="AJ15" s="162"/>
+      <c r="AI15" s="143"/>
+      <c r="AJ15" s="144"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
     </row>
     <row r="16" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="139"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -5346,20 +5384,20 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="162"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="144"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="162"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="144"/>
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="162"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="144"/>
       <c r="AG16" s="9"/>
-      <c r="AH16" s="161"/>
-      <c r="AI16" s="162"/>
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="144"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
@@ -5369,11 +5407,11 @@
       <c r="A17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="183"/>
-      <c r="D17" s="162"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="144"/>
       <c r="E17" s="16" t="s">
         <v>118</v>
       </c>
@@ -5393,20 +5431,20 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="162"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="144"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="162"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="144"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="18"/>
       <c r="AD17" s="18"/>
-      <c r="AE17" s="181"/>
-      <c r="AF17" s="182"/>
+      <c r="AE17" s="148"/>
+      <c r="AF17" s="149"/>
       <c r="AG17" s="11"/>
-      <c r="AH17" s="163"/>
-      <c r="AI17" s="164"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="146"/>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="11"/>
       <c r="AL17" s="9"/>
@@ -5414,11 +5452,11 @@
     </row>
     <row r="18" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="144"/>
       <c r="E18" s="16"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -5436,33 +5474,33 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="162"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="144"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="162"/>
+      <c r="Z18" s="143"/>
+      <c r="AA18" s="144"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="181"/>
-      <c r="AF18" s="182"/>
+      <c r="AE18" s="148"/>
+      <c r="AF18" s="149"/>
       <c r="AG18" s="9"/>
-      <c r="AH18" s="163"/>
-      <c r="AI18" s="164"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="146"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="11"/>
       <c r="AL18" s="9"/>
       <c r="AM18" s="9"/>
     </row>
     <row r="19" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="186" t="s">
+      <c r="A19" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="187"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="188"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -5479,33 +5517,33 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="162"/>
+      <c r="V19" s="143"/>
+      <c r="W19" s="144"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="162"/>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="144"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="162"/>
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="144"/>
       <c r="AG19" s="19"/>
-      <c r="AH19" s="184"/>
-      <c r="AI19" s="185"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="151"/>
       <c r="AJ19" s="19"/>
       <c r="AK19" s="19"/>
       <c r="AL19" s="19"/>
       <c r="AM19" s="9"/>
     </row>
     <row r="20" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -5522,33 +5560,33 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="162"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="144"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="162"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="144"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
-      <c r="AE20" s="161"/>
-      <c r="AF20" s="162"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="144"/>
       <c r="AG20" s="20"/>
-      <c r="AH20" s="163"/>
-      <c r="AI20" s="164"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="146"/>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="11"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
     </row>
     <row r="21" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="138"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -5565,33 +5603,33 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="162"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="144"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="162"/>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="144"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
-      <c r="AE21" s="161"/>
-      <c r="AF21" s="162"/>
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="144"/>
       <c r="AG21" s="11"/>
-      <c r="AH21" s="189"/>
-      <c r="AI21" s="190"/>
+      <c r="AH21" s="141"/>
+      <c r="AI21" s="142"/>
       <c r="AJ21" s="21"/>
       <c r="AK21" s="22"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="23"/>
     </row>
     <row r="22" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="139"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -5608,33 +5646,33 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="162"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="144"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="162"/>
+      <c r="Z22" s="143"/>
+      <c r="AA22" s="144"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
-      <c r="AE22" s="161"/>
-      <c r="AF22" s="162"/>
+      <c r="AE22" s="143"/>
+      <c r="AF22" s="144"/>
       <c r="AG22" s="11"/>
-      <c r="AH22" s="163"/>
-      <c r="AI22" s="164"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="146"/>
       <c r="AJ22" s="11"/>
       <c r="AK22" s="20"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
     </row>
     <row r="23" spans="1:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="137" t="s">
+      <c r="A23" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="139"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -5651,20 +5689,20 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="162"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="144"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="162"/>
+      <c r="Z23" s="143"/>
+      <c r="AA23" s="144"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="161"/>
-      <c r="AF23" s="162"/>
+      <c r="AE23" s="143"/>
+      <c r="AF23" s="144"/>
       <c r="AG23" s="11"/>
-      <c r="AH23" s="163"/>
-      <c r="AI23" s="164"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="146"/>
       <c r="AJ23" s="11"/>
       <c r="AK23" s="11"/>
       <c r="AL23" s="20"/>
@@ -5672,86 +5710,6 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="A9:E12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A1:AM2"/>
@@ -5776,6 +5734,86 @@
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="A9:E12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="V22:W22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
